--- a/src/test/resources/excel/TestData.xlsx
+++ b/src/test/resources/excel/TestData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AutomationPractice\Finvisage_Automation\src\test\resources\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AutomationPractice\frm_automation\src\test\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC232B02-7DAD-4229-8DC1-03391923D466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46299024-F732-4AF3-9A17-0C8B588CF0EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1170" yWindow="1170" windowWidth="15375" windowHeight="7875" activeTab="1" xr2:uid="{B592264F-A96E-446F-8186-F5AA59A5736F}"/>
   </bookViews>
@@ -490,7 +490,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -519,7 +519,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>7</v>

--- a/src/test/resources/excel/TestData.xlsx
+++ b/src/test/resources/excel/TestData.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AutomationPractice\frm_automation\src\test\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46299024-F732-4AF3-9A17-0C8B588CF0EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72217FA8-04E5-49BF-BFB6-B211E09670EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="15375" windowHeight="7875" activeTab="1" xr2:uid="{B592264F-A96E-446F-8186-F5AA59A5736F}"/>
+    <workbookView xWindow="2085" yWindow="675" windowWidth="10350" windowHeight="7875" firstSheet="1" activeTab="2" xr2:uid="{B592264F-A96E-446F-8186-F5AA59A5736F}"/>
   </bookViews>
   <sheets>
     <sheet name="RUNMANAGER" sheetId="1" r:id="rId1"/>
-    <sheet name="LoginData" sheetId="2" r:id="rId2"/>
+    <sheet name="loginTest" sheetId="2" r:id="rId2"/>
+    <sheet name="loginTest2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -26,10 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="15">
-  <si>
-    <t>loginLogoutTest</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="17">
   <si>
     <t>loginTest</t>
   </si>
@@ -71,6 +69,15 @@
   </si>
   <si>
     <t>Vijayk@97</t>
+  </si>
+  <si>
+    <t>rrr</t>
+  </si>
+  <si>
+    <t>loginTest2</t>
+  </si>
+  <si>
+    <t>something</t>
   </si>
 </sst>
 </file>
@@ -447,7 +454,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -458,10 +465,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -469,15 +476,15 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
         <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -489,8 +496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA636F3F-B365-4873-83C7-BDA2BA547C06}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -502,16 +509,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -519,13 +526,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -533,13 +540,13 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -547,13 +554,13 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -561,13 +568,13 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -575,27 +582,27 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
         <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
         <v>1</v>
       </c>
-      <c r="B7" t="s">
-        <v>2</v>
-      </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -607,4 +614,53 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29A13101-FAA7-4D20-BDA4-E5DC15532A73}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/excel/TestData.xlsx
+++ b/src/test/resources/excel/TestData.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AutomationPractice\frm_automation\src\test\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72217FA8-04E5-49BF-BFB6-B211E09670EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABCBD488-94D6-4424-80C4-66E265752867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2085" yWindow="675" windowWidth="10350" windowHeight="7875" firstSheet="1" activeTab="2" xr2:uid="{B592264F-A96E-446F-8186-F5AA59A5736F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{B592264F-A96E-446F-8186-F5AA59A5736F}"/>
   </bookViews>
   <sheets>
     <sheet name="RUNMANAGER" sheetId="1" r:id="rId1"/>
     <sheet name="loginTest" sheetId="2" r:id="rId2"/>
-    <sheet name="loginTest2" sheetId="3" r:id="rId3"/>
+    <sheet name="FX_ForwardTest" sheetId="4" r:id="rId3"/>
+    <sheet name="loginTest2" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="50">
   <si>
     <t>loginTest</t>
   </si>
@@ -78,13 +79,112 @@
   </si>
   <si>
     <t>something</t>
+  </si>
+  <si>
+    <t>bahubali</t>
+  </si>
+  <si>
+    <t>part1</t>
+  </si>
+  <si>
+    <t>part2</t>
+  </si>
+  <si>
+    <t>UnderlyingValue</t>
+  </si>
+  <si>
+    <t>FX_ForwardTest</t>
+  </si>
+  <si>
+    <t>USDINR</t>
+  </si>
+  <si>
+    <t>Tenure</t>
+  </si>
+  <si>
+    <t>2y</t>
+  </si>
+  <si>
+    <t>Direction</t>
+  </si>
+  <si>
+    <t>Buy</t>
+  </si>
+  <si>
+    <t>NotionalCcy</t>
+  </si>
+  <si>
+    <t>INR</t>
+  </si>
+  <si>
+    <t>Notional</t>
+  </si>
+  <si>
+    <t>2000000</t>
+  </si>
+  <si>
+    <t>3y</t>
+  </si>
+  <si>
+    <t>Sell</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>GBPUSD</t>
+  </si>
+  <si>
+    <t>5y</t>
+  </si>
+  <si>
+    <t>GBP</t>
+  </si>
+  <si>
+    <t>1000000</t>
+  </si>
+  <si>
+    <t>300000</t>
+  </si>
+  <si>
+    <t>1y</t>
+  </si>
+  <si>
+    <t>500000</t>
+  </si>
+  <si>
+    <t>4y</t>
+  </si>
+  <si>
+    <t>3000000</t>
+  </si>
+  <si>
+    <t>10000000</t>
+  </si>
+  <si>
+    <t>EURUSD</t>
+  </si>
+  <si>
+    <t>6y</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>40000000</t>
+  </si>
+  <si>
+    <t>2300000</t>
+  </si>
+  <si>
+    <t>43200000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,13 +206,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -128,7 +242,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -136,6 +250,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -451,10 +566,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60F4BF57-9898-4196-B17B-AB5897DCC58B}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -476,7 +591,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -484,6 +599,14 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
         <v>1</v>
       </c>
     </row>
@@ -497,7 +620,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -554,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -617,11 +740,355 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29A13101-FAA7-4D20-BDA4-E5DC15532A73}">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C3F04E1-1FC2-474D-95A9-F91F645EF39A}">
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" customWidth="1"/>
+    <col min="3" max="3" width="28.140625" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" t="s">
+        <v>33</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" t="s">
+        <v>36</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29A13101-FAA7-4D20-BDA4-E5DC15532A73}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -660,7 +1127,36 @@
         <v>14</v>
       </c>
     </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/test/resources/excel/TestData.xlsx
+++ b/src/test/resources/excel/TestData.xlsx
@@ -8,15 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AutomationPractice\frm_automation\src\test\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABCBD488-94D6-4424-80C4-66E265752867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{953A54A4-D6C1-4D86-9CF2-27453BEDC66E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{B592264F-A96E-446F-8186-F5AA59A5736F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B592264F-A96E-446F-8186-F5AA59A5736F}"/>
   </bookViews>
   <sheets>
     <sheet name="RUNMANAGER" sheetId="1" r:id="rId1"/>
-    <sheet name="loginTest" sheetId="2" r:id="rId2"/>
-    <sheet name="FX_ForwardTest" sheetId="4" r:id="rId3"/>
-    <sheet name="loginTest2" sheetId="3" r:id="rId4"/>
+    <sheet name="FX_TarfLegsTest" sheetId="16" r:id="rId2"/>
+    <sheet name="FXDigitalEKITest" sheetId="17" r:id="rId3"/>
+    <sheet name="FXDigitalEKOTest" sheetId="18" r:id="rId4"/>
+    <sheet name="FX_TarfPointsTest" sheetId="11" r:id="rId5"/>
+    <sheet name="FX_TarfAbsolutTest" sheetId="10" r:id="rId6"/>
+    <sheet name="FX_CollorTest" sheetId="8" r:id="rId7"/>
+    <sheet name="FX_ThreeWayTest" sheetId="9" r:id="rId8"/>
+    <sheet name="FX_OptionSpreadTest" sheetId="7" r:id="rId9"/>
+    <sheet name="FX_ForwardTest" sheetId="4" r:id="rId10"/>
+    <sheet name="FX_ForwardStripTest" sheetId="5" r:id="rId11"/>
+    <sheet name="FX_EuropeanOptionTest" sheetId="6" r:id="rId12"/>
+    <sheet name="loginTest2" sheetId="3" r:id="rId13"/>
+    <sheet name="Sheet3" sheetId="14" r:id="rId14"/>
+    <sheet name="Sheet4" sheetId="15" r:id="rId15"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -28,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="103">
   <si>
     <t>loginTest</t>
   </si>
@@ -51,21 +62,6 @@
     <t>vijaykurapati@apexft.com</t>
   </si>
   <si>
-    <t>VijayK@97</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>vijaykumar</t>
-  </si>
-  <si>
-    <t>vijayk</t>
-  </si>
-  <si>
-    <t>kumar</t>
-  </si>
-  <si>
     <t>no</t>
   </si>
   <si>
@@ -178,24 +174,190 @@
   </si>
   <si>
     <t>43200000</t>
+  </si>
+  <si>
+    <t>FX_ForwardStripTest</t>
+  </si>
+  <si>
+    <t>NumberOfLegs</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Schedule</t>
+  </si>
+  <si>
+    <t>Monthly</t>
+  </si>
+  <si>
+    <t>FX_EuropeanOptionTest</t>
+  </si>
+  <si>
+    <t>FX_OptionSpreadTest</t>
+  </si>
+  <si>
+    <t>FX_CollorTest</t>
+  </si>
+  <si>
+    <t>Buy Call</t>
+  </si>
+  <si>
+    <t>Strike</t>
+  </si>
+  <si>
+    <t>20000000</t>
+  </si>
+  <si>
+    <t>Buy Call Spread</t>
+  </si>
+  <si>
+    <t>Strike2</t>
+  </si>
+  <si>
+    <t>Strike1</t>
+  </si>
+  <si>
+    <t>83.2</t>
+  </si>
+  <si>
+    <t>84.4</t>
+  </si>
+  <si>
+    <t>Buy Call Sell Put</t>
+  </si>
+  <si>
+    <t>Strike3</t>
+  </si>
+  <si>
+    <t>Buy Call Spread Sell Put</t>
+  </si>
+  <si>
+    <t>FX_ThreeWayTest</t>
+  </si>
+  <si>
+    <t>84.6</t>
+  </si>
+  <si>
+    <t>82.4</t>
+  </si>
+  <si>
+    <t>5.3</t>
+  </si>
+  <si>
+    <t>DiscountingRate</t>
+  </si>
+  <si>
+    <t>84.3</t>
+  </si>
+  <si>
+    <t>Premium(mid)</t>
+  </si>
+  <si>
+    <t>By_Changing</t>
+  </si>
+  <si>
+    <t>3000001</t>
+  </si>
+  <si>
+    <t>Strike 1</t>
+  </si>
+  <si>
+    <t>Strike 2</t>
+  </si>
+  <si>
+    <t>FX_TarfAbsolutTest</t>
+  </si>
+  <si>
+    <t>DirectionValue</t>
+  </si>
+  <si>
+    <t>Knockout</t>
+  </si>
+  <si>
+    <t>100000001</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>KnockoutCcyIndex</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>NotionalCcyIndex</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>NotionalIndex</t>
+  </si>
+  <si>
+    <t>TarfSchedule</t>
+  </si>
+  <si>
+    <t>NumberOfTarfLegs</t>
+  </si>
+  <si>
+    <t>DidcountingRate</t>
+  </si>
+  <si>
+    <t>5.2</t>
+  </si>
+  <si>
+    <t>FX_TarfPointsTest</t>
+  </si>
+  <si>
+    <t>Weekly</t>
+  </si>
+  <si>
+    <t>FX_TarfLegsTest</t>
+  </si>
+  <si>
+    <t>KnockoutLegs</t>
+  </si>
+  <si>
+    <t>NotionalCcyValue</t>
+  </si>
+  <si>
+    <t>Yearly</t>
+  </si>
+  <si>
+    <t>FXDigitalEKITest</t>
+  </si>
+  <si>
+    <t>FXDigitalEKOTest</t>
+  </si>
+  <si>
+    <t>Buy Down and in Put</t>
+  </si>
+  <si>
+    <t>Barrier</t>
+  </si>
+  <si>
+    <t>83.1</t>
+  </si>
+  <si>
+    <t>5.7</t>
+  </si>
+  <si>
+    <t>Buy Down and out Put</t>
+  </si>
+  <si>
+    <t>85.2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -214,8 +376,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="JetBrains Mono"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -225,6 +405,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -238,22 +430,35 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -566,188 +771,145 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60F4BF57-9898-4196-B17B-AB5897DCC58B}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:2" ht="15.75">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B2" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75">
+      <c r="A3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75">
+      <c r="A4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75">
+      <c r="A5" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75">
+      <c r="A6" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75">
+      <c r="A7" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75">
+      <c r="A8" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75">
+      <c r="A9" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.75">
+      <c r="A10" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.75">
+      <c r="A11" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.75">
+      <c r="A12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.75">
+      <c r="A13" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.75">
+      <c r="A14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA636F3F-B365-4873-83C7-BDA2BA547C06}">
-  <dimension ref="A1:D7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="25.42578125" customWidth="1"/>
-    <col min="3" max="3" width="40.7109375" customWidth="1"/>
-    <col min="4" max="4" width="27.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" xr:uid="{186C3E18-B924-4BCA-B3BA-3C87C5C4DF68}"/>
-    <hyperlink ref="D2" r:id="rId2" display="Vijay@97" xr:uid="{C45CA5DE-0CCE-43BE-AFEA-C31E8255B40A}"/>
-    <hyperlink ref="C2" r:id="rId3" xr:uid="{0472002A-3D51-4248-86C6-510613F34B9E}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C3F04E1-1FC2-474D-95A9-F91F645EF39A}">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="23.7109375" customWidth="1"/>
     <col min="3" max="3" width="28.140625" customWidth="1"/>
@@ -757,333 +919,546 @@
     <col min="9" max="9" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>13</v>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
         <v>26</v>
       </c>
-      <c r="H2" t="s">
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I3" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="H5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="D6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" t="s">
         <v>31</v>
       </c>
-      <c r="G3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" t="s">
-        <v>36</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" t="s">
-        <v>28</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="I11" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F8" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H8" t="s">
-        <v>46</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" t="s">
-        <v>39</v>
-      </c>
-      <c r="G9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" t="s">
-        <v>33</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" t="s">
-        <v>32</v>
-      </c>
-      <c r="H10" t="s">
-        <v>33</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H11" t="s">
-        <v>36</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>49</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B851907B-5CA6-40EC-AE70-75365837D94E}">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="19.5703125" customWidth="1"/>
+    <col min="3" max="3" width="26.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A28B9ECB-6C3D-4115-B1F8-91D1351BA51A}">
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1:O2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="23.42578125" customWidth="1"/>
+    <col min="3" max="3" width="26" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" customWidth="1"/>
+    <col min="5" max="5" width="25.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" customWidth="1"/>
+    <col min="11" max="12" width="18" customWidth="1"/>
+    <col min="13" max="14" width="15" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M1" t="s">
+        <v>48</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="O1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="O2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29A13101-FAA7-4D20-BDA4-E5DC15532A73}">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -1091,7 +1466,7 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.85546875" customWidth="1"/>
     <col min="2" max="2" width="14.42578125" customWidth="1"/>
@@ -1099,7 +1474,7 @@
     <col min="4" max="4" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1113,50 +1488,1047 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
       </c>
       <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B6D74EE-0F09-4875-8E58-EEF8BCE10CD3}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72916C7D-2A81-4354-8153-D814BC195002}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1124EBD-B428-4668-A341-F89A7D5FE96A}">
+  <dimension ref="A1:M2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="3" max="3" width="31" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" customWidth="1"/>
+    <col min="9" max="9" width="20.85546875" customWidth="1"/>
+    <col min="10" max="10" width="13" customWidth="1"/>
+    <col min="11" max="11" width="16.85546875" customWidth="1"/>
+    <col min="12" max="12" width="19.42578125" customWidth="1"/>
+    <col min="13" max="13" width="12.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
         <v>17</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="M2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{764BCEDB-B06F-4494-AE75-8DDC72D63B72}">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:N2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="24.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" customWidth="1"/>
+    <col min="7" max="7" width="20.5703125" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" customWidth="1"/>
+    <col min="12" max="12" width="17.85546875" customWidth="1"/>
+    <col min="13" max="13" width="20.140625" customWidth="1"/>
+    <col min="14" max="14" width="12.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="J2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53C00BB3-9856-4F56-BDD4-E87559746CA0}">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="19.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" customWidth="1"/>
+    <col min="7" max="7" width="23.28515625" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" customWidth="1"/>
+    <col min="13" max="13" width="17.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="G2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14E22142-8602-4E29-A3CF-B45143A73EF4}">
+  <dimension ref="A1:M2"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="33.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" customWidth="1"/>
+    <col min="8" max="8" width="22.5703125" customWidth="1"/>
+    <col min="9" max="9" width="19.85546875" customWidth="1"/>
+    <col min="10" max="10" width="17.7109375" customWidth="1"/>
+    <col min="11" max="11" width="20.5703125" customWidth="1"/>
+    <col min="12" max="12" width="15.85546875" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="M2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD9C089C-954A-422F-877A-5989FC1A322C}">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:N2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="3" max="3" width="40.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" customWidth="1"/>
+    <col min="10" max="10" width="18.5703125" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" customWidth="1"/>
+    <col min="12" max="12" width="18.85546875" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" customWidth="1"/>
+    <col min="14" max="14" width="16.7109375" customWidth="1"/>
+    <col min="15" max="15" width="18.85546875" customWidth="1"/>
+    <col min="16" max="16" width="10.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{375184CC-11DA-487F-B555-044240107D03}">
+  <dimension ref="A1:P2"/>
+  <sheetViews>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:N2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="29.85546875" customWidth="1"/>
+    <col min="3" max="3" width="35.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="5" max="5" width="23" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.28515625" customWidth="1"/>
+    <col min="15" max="15" width="17.28515625" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="P1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="P2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3E3E3D4-4F1F-49B7-B225-C4E138146F5A}">
+  <dimension ref="A1:Q2"/>
+  <sheetViews>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" customWidth="1"/>
+    <col min="7" max="7" width="27.5703125" customWidth="1"/>
+    <col min="11" max="11" width="16" customWidth="1"/>
+    <col min="13" max="13" width="16.7109375" customWidth="1"/>
+    <col min="14" max="14" width="19.7109375" customWidth="1"/>
+    <col min="15" max="16" width="14.28515625" customWidth="1"/>
+    <col min="17" max="17" width="12.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{980FE95D-468F-4DC3-8C0B-D2EB0ECC82EB}">
+  <dimension ref="A1:P2"/>
+  <sheetViews>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="31" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="38.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="27.42578125" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" customWidth="1"/>
+    <col min="12" max="12" width="17.85546875" customWidth="1"/>
+    <col min="13" max="13" width="13" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" customWidth="1"/>
+    <col min="15" max="15" width="15.7109375" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" t="s">
+        <v>68</v>
+      </c>
+      <c r="N1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="P1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="P2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/test/resources/excel/TestData.xlsx
+++ b/src/test/resources/excel/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AutomationPractice\frm_automation\src\test\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{953A54A4-D6C1-4D86-9CF2-27453BEDC66E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07517479-1906-464C-97D0-8F6AB3903049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B592264F-A96E-446F-8186-F5AA59A5736F}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="104">
   <si>
     <t>loginTest</t>
   </si>
@@ -348,6 +348,9 @@
   </si>
   <si>
     <t>85.2</t>
+  </si>
+  <si>
+    <t>20000001</t>
   </si>
 </sst>
 </file>
@@ -774,7 +777,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B4" sqref="B4:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2406,7 +2409,7 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2421,6 +2424,7 @@
     <col min="8" max="8" width="12.42578125" customWidth="1"/>
     <col min="9" max="9" width="14.140625" customWidth="1"/>
     <col min="10" max="10" width="15.7109375" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" customWidth="1"/>
     <col min="12" max="12" width="17.85546875" customWidth="1"/>
     <col min="13" max="13" width="13" customWidth="1"/>
     <col min="14" max="14" width="14.85546875" customWidth="1"/>
@@ -2510,7 +2514,7 @@
         <v>28</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>47</v>

--- a/src/test/resources/excel/TestData.xlsx
+++ b/src/test/resources/excel/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AutomationPractice\frm_automation\src\test\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07517479-1906-464C-97D0-8F6AB3903049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90C686FD-2E02-46C3-A460-1BF8705C769D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B592264F-A96E-446F-8186-F5AA59A5736F}"/>
   </bookViews>
@@ -1679,8 +1679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{764BCEDB-B06F-4494-AE75-8DDC72D63B72}">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:N2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1784,7 +1784,7 @@
         <v>67</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>49</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/excel/TestData.xlsx
+++ b/src/test/resources/excel/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AutomationPractice\frm_automation\src\test\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90C686FD-2E02-46C3-A460-1BF8705C769D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F06F0096-6D9B-48DC-A12E-3C12538EED4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B592264F-A96E-446F-8186-F5AA59A5736F}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="106">
   <si>
     <t>loginTest</t>
   </si>
@@ -351,6 +351,12 @@
   </si>
   <si>
     <t>20000001</t>
+  </si>
+  <si>
+    <t>2000000000009</t>
+  </si>
+  <si>
+    <t>4000000</t>
   </si>
 </sst>
 </file>
@@ -909,7 +915,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H2"/>
+      <selection activeCell="B3" sqref="B3:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -977,7 +983,7 @@
         <v>23</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>25</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1343,8 +1349,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A28B9ECB-6C3D-4115-B1F8-91D1351BA51A}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:O2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1355,7 +1361,7 @@
     <col min="5" max="5" width="25.85546875" customWidth="1"/>
     <col min="7" max="7" width="12.5703125" customWidth="1"/>
     <col min="9" max="9" width="13.7109375" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" customWidth="1"/>
     <col min="11" max="12" width="18" customWidth="1"/>
     <col min="13" max="14" width="15" customWidth="1"/>
     <col min="15" max="15" width="14.7109375" customWidth="1"/>
@@ -1437,7 +1443,7 @@
         <v>28</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>55</v>
+        <v>104</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>47</v>

--- a/src/test/resources/excel/TestData.xlsx
+++ b/src/test/resources/excel/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AutomationPractice\frm_automation\src\test\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F06F0096-6D9B-48DC-A12E-3C12538EED4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7512078A-8B81-4548-A92A-DD10591BBC22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B592264F-A96E-446F-8186-F5AA59A5736F}"/>
   </bookViews>
